--- a/TestCustom.xlsx
+++ b/TestCustom.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Data_Cells" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chart" sheetId="4" r:id="rId7"/>
+    <sheet name="Data_Cells" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -46,22 +46,22 @@
     <t>MaxSalary</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Position One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Position Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description Two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Position Three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description Three</t>
+    <t>Test Position One</t>
+  </si>
+  <si>
+    <t>Description One</t>
+  </si>
+  <si>
+    <t>Test Position Two</t>
+  </si>
+  <si>
+    <t>Description Two</t>
+  </si>
+  <si>
+    <t>Test Position Three</t>
+  </si>
+  <si>
+    <t>Description Three</t>
   </si>
   <si>
     <t>Junk</t>
@@ -74,11 +74,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,10 +101,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,17 +115,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:chart>
     <c:title>
       <c:tx>
@@ -139,14 +130,12 @@
               <a:rPr/>
               <a:t>Test Chart 0</a:t>
             </a:r>
-            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="20"/>
@@ -156,12 +145,12 @@
       <c:layout/>
       <c:pie3DChart>
         <c:varyColors val="1"/>
-        <c:ser>
+        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f xml:space="preserve">
+              <c:f>
               </c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -175,18 +164,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>=Data_Cells!$A$2:$J$6</c:f>
+              <c:f>=Data_Cells!$A$2:$J$7</c:f>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
+        </ser>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
@@ -195,34 +176,17 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="0" y="0"/>
-      <a:ext cx="0" cy="0"/>
-    </a:xfrm>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:chart>
     <c:title>
       <c:tx>
@@ -237,14 +201,12 @@
               <a:rPr/>
               <a:t>Test Chart 1</a:t>
             </a:r>
-            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:rotY val="20"/>
@@ -254,12 +216,12 @@
       <c:layout/>
       <c:pie3DChart>
         <c:varyColors val="1"/>
-        <c:ser>
+        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f xml:space="preserve">
+              <c:f>
               </c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -269,23 +231,15 @@
           <c:explosion val="25"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data_Cells!$A$1:$J$1</c:f>
+              <c:f>=Data_Cells!$A$1:$J$1</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>=Data_Cells!$A$2:$J$6</c:f>
+              <c:f>=Data_Cells!$A$2:$J$7</c:f>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
+        </ser>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
@@ -294,34 +248,17 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="0" y="0"/>
-      <a:ext cx="0" cy="0"/>
-    </a:xfrm>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:chart>
     <c:title>
       <c:tx>
@@ -336,25 +273,23 @@
               <a:rPr/>
               <a:t>Test Chart 2</a:t>
             </a:r>
-            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
+        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f xml:space="preserve">
+              <c:f>
               </c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -366,24 +301,16 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data_Cells!$A$1:$J$1</c:f>
+              <c:f>=Data_Cells!$A$1:$J$1</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>=Data_Cells!$A$2:$J$6</c:f>
+              <c:f>=Data_Cells!$A$2:$J$7</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
+        </ser>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:scatterChart>
@@ -394,12 +321,9 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2"/>
@@ -408,11 +332,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto"/>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
@@ -425,34 +345,17 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="0" y="0"/>
-      <a:ext cx="0" cy="0"/>
-    </a:xfrm>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:chart>
     <c:title>
       <c:tx>
@@ -467,24 +370,22 @@
               <a:rPr/>
               <a:t>Test Chart 3</a:t>
             </a:r>
-            <a:endParaRPr/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:doughnutChart>
         <c:varyColors val="1"/>
-        <c:ser>
+        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f xml:space="preserve">
+              <c:f>
               </c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -494,23 +395,15 @@
           <c:explosion val="25"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data_Cells!$A$1:$J$1</c:f>
+              <c:f>=Data_Cells!$A$1:$J$1</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>=Data_Cells!$A$2:$J$6</c:f>
+              <c:f>=Data_Cells!$A$2:$J$7</c:f>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
+        </ser>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="50"/>
       </c:doughnutChart>
@@ -521,25 +414,18 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="0" y="0"/>
-      <a:ext cx="0" cy="0"/>
-    </a:xfrm>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -552,12 +438,10 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="chartZero" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="chartZero"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -568,10 +452,10 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -584,12 +468,10 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="chartOne" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chartOne"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -600,10 +482,10 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -616,12 +498,10 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="chartTwo" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chartTwo"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -632,28 +512,26 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="chartThree" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chartThree"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -664,8 +542,8 @@
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1076,26 +954,11 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1293,7 +1156,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="0">
         <v>342342</v>
       </c>
@@ -1329,5 +1192,249 @@
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1123456</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2123456</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3123456</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0">
+        <v>43466</v>
+      </c>
+      <c r="G2" s="0">
+        <v>43467</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0">
+        <v>60000</v>
+      </c>
+      <c r="J2" s="0">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2123456</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2123456</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3123456</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0">
+        <v>43467</v>
+      </c>
+      <c r="G3" s="0">
+        <v>43468</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>60000</v>
+      </c>
+      <c r="J3" s="0">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3123456</v>
+      </c>
+      <c r="B4" s="0">
+        <v>32123456</v>
+      </c>
+      <c r="C4" s="0">
+        <v>3123456</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0">
+        <v>43468</v>
+      </c>
+      <c r="G4" s="0">
+        <v>43469</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>60000</v>
+      </c>
+      <c r="J4" s="0">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4123456</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4123456</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3123456</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0">
+        <v>43469</v>
+      </c>
+      <c r="G5" s="0">
+        <v>43470</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>60000</v>
+      </c>
+      <c r="J5" s="0">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>123456</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2123456</v>
+      </c>
+      <c r="C6" s="0">
+        <v>3123456</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0">
+        <v>43471</v>
+      </c>
+      <c r="G6" s="0">
+        <v>43472</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>60000</v>
+      </c>
+      <c r="J6" s="0">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="0">
+        <v>342342</v>
+      </c>
+      <c r="B7" s="0">
+        <v>43242</v>
+      </c>
+      <c r="C7" s="0">
+        <v>43234</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0">
+        <v>344</v>
+      </c>
+      <c r="G7" s="0">
+        <v>4342</v>
+      </c>
+      <c r="H7" s="0">
+        <v>434</v>
+      </c>
+      <c r="I7" s="0">
+        <v>4342</v>
+      </c>
+      <c r="J7" s="0">
+        <v>4343</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TestCustom.xlsx
+++ b/TestCustom.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RFonseca\workRepos\AsposeAPI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C095C00-E28A-48B1-9741-DCA7C261938A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="-1"/>
+    <workbookView xWindow="10020" yWindow="4905" windowWidth="22110" windowHeight="12495" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart" sheetId="4" r:id="rId7"/>
-    <sheet name="Data_Cells" sheetId="6" r:id="rId9"/>
+    <sheet name="Chart" sheetId="5" r:id="rId5"/>
+    <sheet name="Data_Cells" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PositionId</t>
   </si>
@@ -64,16 +71,13 @@
     <t>Description Three</t>
   </si>
   <si>
-    <t>Junk</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>testy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -88,7 +92,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -111,6 +115,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,7 +435,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -548,291 +560,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -884,7 +613,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -951,263 +680,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1123456</v>
-      </c>
-      <c r="B2" s="0">
-        <v>2123456</v>
-      </c>
-      <c r="C2" s="0">
-        <v>3123456</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0">
-        <v>43466</v>
-      </c>
-      <c r="G2" s="0">
-        <v>43467</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0">
-        <v>60000</v>
-      </c>
-      <c r="J2" s="0">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>2123456</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2123456</v>
-      </c>
-      <c r="C3" s="0">
-        <v>3123456</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0">
-        <v>43467</v>
-      </c>
-      <c r="G3" s="0">
-        <v>43468</v>
-      </c>
-      <c r="H3" s="0">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0">
-        <v>60000</v>
-      </c>
-      <c r="J3" s="0">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3123456</v>
-      </c>
-      <c r="B4" s="0">
-        <v>32123456</v>
-      </c>
-      <c r="C4" s="0">
-        <v>3123456</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0">
-        <v>43468</v>
-      </c>
-      <c r="G4" s="0">
-        <v>43469</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0">
-        <v>60000</v>
-      </c>
-      <c r="J4" s="0">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>4123456</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4123456</v>
-      </c>
-      <c r="C5" s="0">
-        <v>3123456</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0">
-        <v>43469</v>
-      </c>
-      <c r="G5" s="0">
-        <v>43470</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0">
-        <v>60000</v>
-      </c>
-      <c r="J5" s="0">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>123456</v>
-      </c>
-      <c r="B6" s="0">
-        <v>2123456</v>
-      </c>
-      <c r="C6" s="0">
-        <v>3123456</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0">
-        <v>43471</v>
-      </c>
-      <c r="G6" s="0">
-        <v>43472</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0">
-        <v>60000</v>
-      </c>
-      <c r="J6" s="0">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="0">
-        <v>342342</v>
-      </c>
-      <c r="B7" s="0">
-        <v>43242</v>
-      </c>
-      <c r="C7" s="0">
-        <v>43234</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0">
-        <v>344</v>
-      </c>
-      <c r="G7" s="0">
-        <v>4342</v>
-      </c>
-      <c r="H7" s="0">
-        <v>434</v>
-      </c>
-      <c r="I7" s="0">
-        <v>4342</v>
-      </c>
-      <c r="J7" s="0">
-        <v>4343</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetData/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="0">
         <v>1123456</v>
       </c>
@@ -1271,7 +773,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="0">
         <v>2123456</v>
       </c>
@@ -1303,7 +805,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="0">
         <v>3123456</v>
       </c>
@@ -1335,7 +837,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="0">
         <v>4123456</v>
       </c>
@@ -1367,7 +869,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="0">
         <v>123456</v>
       </c>
@@ -1401,40 +903,38 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="0">
-        <v>342342</v>
+        <v>43242342</v>
       </c>
       <c r="B7" s="0">
-        <v>43242</v>
+        <v>42343</v>
       </c>
       <c r="C7" s="0">
-        <v>43234</v>
+        <v>4234234</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0">
-        <v>344</v>
+        <v>42342</v>
       </c>
       <c r="G7" s="0">
-        <v>4342</v>
+        <v>42343</v>
       </c>
       <c r="H7" s="0">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0">
-        <v>4342</v>
+        <v>423423</v>
       </c>
       <c r="J7" s="0">
-        <v>4343</v>
+        <v>42423</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>